--- a/chetan.xlsx
+++ b/chetan.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPUNAMCH\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A504B18-B3AF-45CD-B4F8-4BD24448445C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{ADD8B105-3181-4629-98CE-94F13856565A}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>abc1</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{C1516D8A-38C0-4146-9EA2-960624EDF5F6}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Test Type</t>
   </si>
@@ -92,22 +91,28 @@
 5. update the item numbers 6. checkout (excluding payment)</t>
   </si>
   <si>
-    <t xml:space="preserve">Test prerequisite:                                  None                                                                                                                                                                                                       Steps:                                                                1. Login with default values.                   Usnename: khapnechetan@gmail.com             Password:Chetan@1234                                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test prerequisite:                                  None                                                                                                                                                                                                       Steps:                                                                1. 1.Login with default values.                   Usnename: khapnechetan@gmail.com             Password:Chetan@1234                                        2.Search Product:Mobile under 10000              3.Sort by Featured:low to high                             4.Click on buy now                </t>
-  </si>
-  <si>
-    <t>1.Select delivery address                                        2.Add a new address                                                 3.Country/Region                                                           4.Full Name</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.Select delivery address                                        2.Add a new address                                                 3.Country/Region                                                           4.Full Name                                                                5.Mobile Number                                                      6.pincode                                                                    7.House No.                                                                   8.Area                                                                          9.Landmark                                                                   10.City                                      </t>
+  </si>
+  <si>
+    <t>Search a product</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI                                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test prerequisite:                                                                                                                                                                                                                                         Steps:                                                                 Login with default values.                   Usnename: khapnechetan@gmail.com             Password:Chetan@1234                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test prerequisite:                                                                                                                                                                                                                                         Steps:                                                                 1.Login with default values.                   Usnename: khapnechetan@gmail.com             Password:Chetan@1234                                        2.Search Product:Mobile under 10000              3.Sort by Featured:low to high                             4.Click on buy now                </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -239,7 +244,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_QTP_Diameter_Base2.6.0_ Ro2.2.0" xfId="1" xr:uid="{61123EC8-B7CA-432C-94CE-AF7887D3E18D}"/>
+    <cellStyle name="Normal_QTP_Diameter_Base2.6.0_ Ro2.2.0" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -550,23 +555,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903EE4D7-E16B-4B6E-A59F-769BA7B6972B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="47.1796875" customWidth="1"/>
+    <col min="5" max="5" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="55.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,7 +588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="126" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -597,10 +602,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="185" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -608,16 +613,16 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -625,13 +630,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>11</v>
+      <c r="E4" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
